--- a/EEE/AuRA/EEE_Auvergne.xlsx
+++ b/EEE/AuRA/EEE_Auvergne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\EEE\AuRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B810A-24BC-4D5D-AEB6-884695A87612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAC6CC2-9F3C-458D-A30A-B93AEB20D90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,29 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="306">
-  <si>
-    <t>Noms scientifiques</t>
-  </si>
-  <si>
-    <t>Noms français</t>
-  </si>
-  <si>
-    <t>Rareté en
-Auvergne</t>
-  </si>
-  <si>
-    <t>Cotation de
-Lavergne (1)</t>
-  </si>
-  <si>
-    <t>Echelle de
-Weber (2)</t>
-  </si>
-  <si>
-    <t>Invasibilité
-(Echelle de Weber)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="322">
   <si>
     <t>Ambrosia artemisiifolia  L.</t>
   </si>
@@ -87,9 +65,6 @@
     <t>2 et 2+</t>
   </si>
   <si>
-    <t>Elodea nuttallii  (Planch.) H.St.John</t>
-  </si>
-  <si>
     <t>Élodée de Nuttall</t>
   </si>
   <si>
@@ -102,28 +77,18 @@
     <t>Balsamine de l'Himalaya</t>
   </si>
   <si>
-    <t>Lagarosiphon major  (Ridl.) Moss</t>
-  </si>
-  <si>
     <t>Grand Lagarosiphon</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>Ludwigia grandiflora   (Michx.) Greuter &amp;
-Burdet (subsp. hexapetala )</t>
-  </si>
-  <si>
     <t>Jussie à grandes fleurs</t>
   </si>
   <si>
     <t>AR</t>
   </si>
   <si>
-    <t>Myriophyllum aquaticum  (Vell.) Verdc.</t>
-  </si>
-  <si>
     <t>Myriophylle du Brésil</t>
   </si>
   <si>
@@ -134,9 +99,6 @@
   </si>
   <si>
     <t>A signaler</t>
-  </si>
-  <si>
-    <t>Specificite</t>
   </si>
   <si>
     <t>Acer negundo  L.</t>
@@ -267,10 +229,6 @@
   </si>
   <si>
     <t>Spirée de Douglas (groupe)</t>
-  </si>
-  <si>
-    <t>Symphyotrichum  gr. novi-belgii  (incl. S.
-lanceolatum, S. novi-belgii, S. x salignum  et S. x versicolor )</t>
   </si>
   <si>
     <t>Aster de Nouvelle-Belgique (groupe)</t>
@@ -292,7 +250,7 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>Eichhornia</t>
+      <t>Jacinthe</t>
     </r>
     <r>
       <rPr>
@@ -308,23 +266,17 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>crassipes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
+      <t>d'eau</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>(Mart.)</t>
+      <t>Jussie</t>
     </r>
     <r>
       <rPr>
@@ -340,7 +292,7 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>Solms</t>
+      <t>rampante</t>
     </r>
   </si>
   <si>
@@ -350,7 +302,7 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>Jacinthe</t>
+      <t>Arum</t>
     </r>
     <r>
       <rPr>
@@ -366,233 +318,7 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>d'eau</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ludwigia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>peploides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Kunth)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>P.H.Raven</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Jussie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>rampante</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lysichiton</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>americanus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Hultén</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>H.St.John</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Arum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>bananier</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Myriophyllum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>heterophyllum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Michaux</t>
     </r>
   </si>
   <si>
@@ -1548,6 +1274,174 @@
       </rPr>
       <t>(8) Espèce exotique potentiellement envahissante (rang 3 de la cotation de Lavergne) : Espèce exotique envahissante formant des populations denses uniquement dans les milieux régulièrement perturbés par les activités humaines (bords de route, friches, cultures, jardins, remblais…). Ce taxon peut se retrouver dans les milieux naturels mais il n’y forme pas pour le moment de populations denses et n’est donc pas une menace directe pour ces milieux.</t>
     </r>
+  </si>
+  <si>
+    <t>LAVERGNE</t>
+  </si>
+  <si>
+    <t>RARETE_AUVERGNE</t>
+  </si>
+  <si>
+    <t>NOM_VERN</t>
+  </si>
+  <si>
+    <t>NOM_SCIEN</t>
+  </si>
+  <si>
+    <t>LB_WEBER</t>
+  </si>
+  <si>
+    <t>PT_WEBER</t>
+  </si>
+  <si>
+    <t>SPECIFICITE</t>
+  </si>
+  <si>
+    <t>Myriophyllum aquaticum (Vell.) Verdc.</t>
+  </si>
+  <si>
+    <t>Ludwigia grandiflora  (Michx.) Greuter &amp;
+Burdet (subsp. hexapetala )</t>
+  </si>
+  <si>
+    <t>Lagarosiphon major (Ridl.) Moss</t>
+  </si>
+  <si>
+    <t>Elodea nuttallii (Planch.) H.St.John</t>
+  </si>
+  <si>
+    <t>Myriophyllum heterophyllum Michaux</t>
+  </si>
+  <si>
+    <r>
+      <t>Lysichiton americanus Hultén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>H.St.John</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ludwigia peploides (Kunth)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>P.H.Raven</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Eichhornia crassipes (Mart.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Solms</t>
+    </r>
+  </si>
+  <si>
+    <t>Symphyotrichum  gr. novi-belgii  (incl. S.
+Symphyotrichum, S. Symphyotrichum, S. x salignum  et S. x versicolor )</t>
+  </si>
+  <si>
+    <t>Symphyotrichum novi-belgii</t>
+  </si>
+  <si>
+    <t>Symphyotrichum x salignum</t>
+  </si>
+  <si>
+    <t>Symphyotrichum x versicolor</t>
+  </si>
+  <si>
+    <t>Helianthus tuberosus</t>
+  </si>
+  <si>
+    <t>Topinambours</t>
+  </si>
+  <si>
+    <t>Hélianthes</t>
+  </si>
+  <si>
+    <t>Reynoutria japonica</t>
+  </si>
+  <si>
+    <t>Reynoutria sachalinensis</t>
+  </si>
+  <si>
+    <t>Spiraea douglasii</t>
+  </si>
+  <si>
+    <t>Spiraea salicifolia</t>
+  </si>
+  <si>
+    <t>Spiraea x billardii</t>
+  </si>
+  <si>
+    <t>Spiraea x pseudosalicifolia</t>
+  </si>
+  <si>
+    <t>Oenothera biennis</t>
+  </si>
+  <si>
+    <t>Oenothera pycnocarpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helianthus x laetiflorus </t>
+  </si>
+  <si>
+    <t>Reynoutria x bohemica</t>
   </si>
 </sst>
 </file>
@@ -1651,9 +1545,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1666,32 +1584,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1973,16 +1870,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L124" sqref="L124"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="42.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="104.1796875" customWidth="1"/>
+    <col min="2" max="2" width="91" customWidth="1"/>
     <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
@@ -1992,36 +1889,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>294</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -2030,21 +1927,21 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -2053,44 +1950,44 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2099,21 +1996,21 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2122,21 +2019,21 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -2145,21 +2042,21 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -2168,21 +2065,21 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29">
+      <c r="A9" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -2191,21 +2088,21 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -2214,113 +2111,113 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
+      <c r="A11" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
+      <c r="A12" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
+      <c r="A13" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
+      <c r="A14" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2329,21 +2226,21 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -2352,21 +2249,21 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -2375,21 +2272,21 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2398,21 +2295,21 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2421,21 +2318,21 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -2444,44 +2341,44 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -2490,21 +2387,21 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -2513,21 +2410,21 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29">
+      <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -2536,90 +2433,90 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>309</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>310</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>59</v>
+      <c r="A26" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>311</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -2628,2298 +2525,2262 @@
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30">
+    </row>
+    <row r="31" spans="1:7" ht="29">
+      <c r="A31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31">
         <v>5</v>
       </c>
-      <c r="E30">
-        <v>31</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
       <c r="E31">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>75</v>
+      <c r="A33" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
         <v>37</v>
       </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37">
-        <v>21</v>
-      </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>94</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="29">
+      <c r="A38" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>102</v>
+        <v>26</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>106</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="29">
+      <c r="A43" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>307</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" t="s">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="E50">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="E52">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E53">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55">
         <v>20</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>18</v>
-      </c>
       <c r="F55" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E57">
         <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" t="s">
-        <v>102</v>
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E59">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E62">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64">
         <v>17</v>
       </c>
-      <c r="E64">
-        <v>27</v>
-      </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
       </c>
       <c r="E66">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="E68">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E69">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70">
         <v>17</v>
       </c>
-      <c r="E70">
-        <v>23</v>
-      </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E71">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E72">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" t="s">
-        <v>102</v>
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" t="s">
-        <v>102</v>
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E77">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" t="s">
         <v>17</v>
       </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
       <c r="E78">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E79">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>86</v>
       </c>
       <c r="E80">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B81" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
       </c>
       <c r="E81">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B82" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
       </c>
       <c r="E82">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
       </c>
       <c r="E83">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84">
+        <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E85">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
       <c r="E86">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E87">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E88">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E89">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G89" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="B90" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G90" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>206</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="29">
+      <c r="A93" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" t="s">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94" t="s">
-        <v>209</v>
-      </c>
-      <c r="C94" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" t="s">
-        <v>102</v>
-      </c>
-      <c r="E94">
-        <v>20</v>
-      </c>
-      <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>210</v>
-      </c>
-      <c r="B95" t="s">
-        <v>211</v>
-      </c>
-      <c r="C95" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" t="s">
-        <v>102</v>
-      </c>
-      <c r="E95">
-        <v>22</v>
-      </c>
-      <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G96" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="B97" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" t="s">
-        <v>102</v>
-      </c>
-      <c r="E98">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>86</v>
       </c>
       <c r="E99">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G99" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G100" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E101">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G101" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="B102" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E102">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="B103" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="E103">
         <v>21</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="B104" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
-      </c>
-      <c r="D104" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G104" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="B105" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
-      </c>
-      <c r="D105" t="s">
-        <v>102</v>
+        <v>17</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G105" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E106">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E107">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F107" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G107" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E108">
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G108" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="B109" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>86</v>
       </c>
       <c r="E109">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F109" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
       </c>
       <c r="E110">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G110" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="B111" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E111">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D112" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E112">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F112" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G112" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="C113" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="C114" t="s">
-        <v>63</v>
-      </c>
-      <c r="D114">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
       </c>
       <c r="E114">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G114" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>86</v>
       </c>
       <c r="E115">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="C116" t="s">
-        <v>37</v>
-      </c>
-      <c r="D116">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
       </c>
       <c r="E116">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>86</v>
       </c>
       <c r="E117">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F117" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="B118" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
       </c>
       <c r="E118">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="B119" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>86</v>
       </c>
       <c r="E119">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F119" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="B120" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="C120" t="s">
-        <v>63</v>
-      </c>
-      <c r="D120">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
       </c>
       <c r="E120">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F120" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="C121" t="s">
-        <v>63</v>
-      </c>
-      <c r="D121">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D121" t="s">
+        <v>86</v>
       </c>
       <c r="E121">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F121" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G121" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="B122" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="C122" t="s">
-        <v>70</v>
-      </c>
-      <c r="D122">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>86</v>
       </c>
       <c r="E122">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F122" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G122" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F123" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G123" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="B124" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G124" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="C125" t="s">
-        <v>37</v>
-      </c>
-      <c r="D125">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
       </c>
       <c r="E125">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G125" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="B126" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D126" t="s">
+        <v>86</v>
       </c>
       <c r="E126">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G126" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="B127" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D127">
         <v>3</v>
       </c>
       <c r="E127">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="C128" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -4928,125 +4789,447 @@
         <v>23</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="B129" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="C129" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D129">
         <v>3</v>
       </c>
       <c r="E129">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F129" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G129" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="B130" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="C130" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D130">
         <v>3</v>
       </c>
       <c r="E130">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="B131" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="C131" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D131">
         <v>3</v>
       </c>
       <c r="E131">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G131" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="B132" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D132">
         <v>3</v>
       </c>
       <c r="E132">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G132" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="B133" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="C133" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D133">
         <v>3</v>
       </c>
       <c r="E133">
+        <v>27</v>
+      </c>
+      <c r="F133" t="s">
+        <v>3</v>
+      </c>
+      <c r="G133" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" t="s">
+        <v>246</v>
+      </c>
+      <c r="C134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>28</v>
+      </c>
+      <c r="F134" t="s">
+        <v>3</v>
+      </c>
+      <c r="G134" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>247</v>
+      </c>
+      <c r="B135" t="s">
+        <v>248</v>
+      </c>
+      <c r="C135" t="s">
+        <v>52</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>30</v>
+      </c>
+      <c r="F135" t="s">
+        <v>3</v>
+      </c>
+      <c r="G135" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>249</v>
+      </c>
+      <c r="B136" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" t="s">
+        <v>59</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>30</v>
+      </c>
+      <c r="F136" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" t="s">
+        <v>252</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>28</v>
+      </c>
+      <c r="F137" t="s">
+        <v>3</v>
+      </c>
+      <c r="G137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <v>22</v>
+      </c>
+      <c r="F138" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>255</v>
+      </c>
+      <c r="B139" t="s">
+        <v>256</v>
+      </c>
+      <c r="C139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <v>24</v>
+      </c>
+      <c r="F139" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>257</v>
+      </c>
+      <c r="B140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
         <v>21</v>
       </c>
-      <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s">
-        <v>289</v>
+      <c r="F140" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>259</v>
+      </c>
+      <c r="B141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>25</v>
+      </c>
+      <c r="F141" t="s">
+        <v>7</v>
+      </c>
+      <c r="G141" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>261</v>
+      </c>
+      <c r="B142" t="s">
+        <v>262</v>
+      </c>
+      <c r="C142" t="s">
+        <v>52</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>23</v>
+      </c>
+      <c r="F142" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" t="s">
+        <v>264</v>
+      </c>
+      <c r="C143" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>89</v>
+      </c>
+      <c r="G143" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>265</v>
+      </c>
+      <c r="B144" t="s">
+        <v>266</v>
+      </c>
+      <c r="C144" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>17</v>
+      </c>
+      <c r="F144" t="s">
+        <v>89</v>
+      </c>
+      <c r="G144" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>267</v>
+      </c>
+      <c r="B145" t="s">
+        <v>268</v>
+      </c>
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>28</v>
+      </c>
+      <c r="F145" t="s">
+        <v>3</v>
+      </c>
+      <c r="G145" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>269</v>
+      </c>
+      <c r="B146" t="s">
+        <v>270</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>31</v>
+      </c>
+      <c r="F146" t="s">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>271</v>
+      </c>
+      <c r="B147" t="s">
+        <v>272</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>21</v>
+      </c>
+      <c r="F147" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5070,118 +5253,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="E6" s="12"/>
+      <c r="A6" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="E8" s="13"/>
+      <c r="A8" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="A11" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
@@ -5192,12 +5381,6 @@
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
